--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -85,16 +94,7 @@
     <t>Tnfrsf1a</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H2">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N2">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q2">
-        <v>60.24211789869435</v>
+        <v>5.99707007666989</v>
       </c>
       <c r="R2">
-        <v>60.24211789869435</v>
+        <v>53.973630690029</v>
       </c>
       <c r="S2">
-        <v>0.06215136054600255</v>
+        <v>0.004689547555088262</v>
       </c>
       <c r="T2">
-        <v>0.06215136054600255</v>
+        <v>0.004689547555088261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H3">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N3">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q3">
-        <v>173.4274492000428</v>
+        <v>12.23591510497867</v>
       </c>
       <c r="R3">
-        <v>173.4274492000428</v>
+        <v>110.123235944808</v>
       </c>
       <c r="S3">
-        <v>0.1789238542697221</v>
+        <v>0.009568156621688714</v>
       </c>
       <c r="T3">
-        <v>0.1789238542697221</v>
+        <v>0.009568156621688712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H4">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N4">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q4">
-        <v>134.3593339784935</v>
+        <v>11.25783841057644</v>
       </c>
       <c r="R4">
-        <v>134.3593339784935</v>
+        <v>101.320545695188</v>
       </c>
       <c r="S4">
-        <v>0.1386175602733765</v>
+        <v>0.008803326944482454</v>
       </c>
       <c r="T4">
-        <v>0.1386175602733765</v>
+        <v>0.008803326944482451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H5">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N5">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q5">
-        <v>164.7909828341545</v>
+        <v>12.31336911914333</v>
       </c>
       <c r="R5">
-        <v>164.7909828341545</v>
+        <v>110.82032207229</v>
       </c>
       <c r="S5">
-        <v>0.1700136739229355</v>
+        <v>0.009628723578238166</v>
       </c>
       <c r="T5">
-        <v>0.1700136739229355</v>
+        <v>0.009628723578238164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H6">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N6">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q6">
-        <v>383.6184708457967</v>
+        <v>27.70801521768911</v>
       </c>
       <c r="R6">
-        <v>383.6184708457967</v>
+        <v>249.372136959202</v>
       </c>
       <c r="S6">
-        <v>0.3957764222987258</v>
+        <v>0.02166692290722999</v>
       </c>
       <c r="T6">
-        <v>0.3957764222987258</v>
+        <v>0.02166692290722998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,1165 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H7">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N7">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q7">
-        <v>52.84240385316205</v>
+        <v>3.827616697655334</v>
       </c>
       <c r="R7">
-        <v>52.84240385316205</v>
+        <v>34.448550278898</v>
       </c>
       <c r="S7">
-        <v>0.05451712868923769</v>
+        <v>0.002993093343386761</v>
       </c>
       <c r="T7">
-        <v>0.05451712868923769</v>
+        <v>0.00299309334338676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.28584</v>
+      </c>
+      <c r="I8">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J8">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N8">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O8">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P8">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q8">
+        <v>2.46636132488</v>
+      </c>
+      <c r="R8">
+        <v>22.19725192392</v>
+      </c>
+      <c r="S8">
+        <v>0.001928628242322924</v>
+      </c>
+      <c r="T8">
+        <v>0.001928628242322924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.28584</v>
+      </c>
+      <c r="I9">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J9">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>52.814392</v>
+      </c>
+      <c r="N9">
+        <v>158.443176</v>
+      </c>
+      <c r="O9">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P9">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q9">
+        <v>5.03215526976</v>
+      </c>
+      <c r="R9">
+        <v>45.28939742783999</v>
+      </c>
+      <c r="S9">
+        <v>0.003935010120013728</v>
+      </c>
+      <c r="T9">
+        <v>0.003935010120013728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.28584</v>
+      </c>
+      <c r="I10">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J10">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N10">
+        <v>145.778036</v>
+      </c>
+      <c r="O10">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P10">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q10">
+        <v>4.629910423359999</v>
+      </c>
+      <c r="R10">
+        <v>41.66919381024</v>
+      </c>
+      <c r="S10">
+        <v>0.003620465465396412</v>
+      </c>
+      <c r="T10">
+        <v>0.003620465465396411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.28584</v>
+      </c>
+      <c r="I11">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J11">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>53.14871</v>
+      </c>
+      <c r="N11">
+        <v>159.44613</v>
+      </c>
+      <c r="O11">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P11">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q11">
+        <v>5.0640090888</v>
+      </c>
+      <c r="R11">
+        <v>45.5760817992</v>
+      </c>
+      <c r="S11">
+        <v>0.003959918950040641</v>
+      </c>
+      <c r="T11">
+        <v>0.003959918950040641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.28584</v>
+      </c>
+      <c r="I12">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J12">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N12">
+        <v>358.791794</v>
+      </c>
+      <c r="O12">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P12">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q12">
+        <v>11.39522737744</v>
+      </c>
+      <c r="R12">
+        <v>102.55704639696</v>
+      </c>
+      <c r="S12">
+        <v>0.008910761422554926</v>
+      </c>
+      <c r="T12">
+        <v>0.008910761422554926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.28584</v>
+      </c>
+      <c r="I13">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J13">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.521302</v>
+      </c>
+      <c r="N13">
+        <v>49.563906</v>
+      </c>
+      <c r="O13">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P13">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q13">
+        <v>1.57414965456</v>
+      </c>
+      <c r="R13">
+        <v>14.16734689104</v>
+      </c>
+      <c r="S13">
+        <v>0.001230942705272515</v>
+      </c>
+      <c r="T13">
+        <v>0.001230942705272514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J14">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N14">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P14">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q14">
+        <v>7.398221127828891</v>
+      </c>
+      <c r="R14">
+        <v>66.58399015046001</v>
+      </c>
+      <c r="S14">
+        <v>0.005785210003962083</v>
+      </c>
+      <c r="T14">
+        <v>0.005785210003962082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J15">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.814392</v>
+      </c>
+      <c r="N15">
+        <v>158.443176</v>
+      </c>
+      <c r="O15">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P15">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q15">
+        <v>15.09470532954667</v>
+      </c>
+      <c r="R15">
+        <v>135.85234796592</v>
+      </c>
+      <c r="S15">
+        <v>0.01180365371222422</v>
+      </c>
+      <c r="T15">
+        <v>0.01180365371222422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J16">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N16">
+        <v>145.778036</v>
+      </c>
+      <c r="O16">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P16">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q16">
+        <v>13.88811151412445</v>
+      </c>
+      <c r="R16">
+        <v>124.99300362712</v>
+      </c>
+      <c r="S16">
+        <v>0.01086012979058282</v>
+      </c>
+      <c r="T16">
+        <v>0.01086012979058281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J17">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>53.14871</v>
+      </c>
+      <c r="N17">
+        <v>159.44613</v>
+      </c>
+      <c r="O17">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P17">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q17">
+        <v>15.19025564273334</v>
+      </c>
+      <c r="R17">
+        <v>136.7123007846</v>
+      </c>
+      <c r="S17">
+        <v>0.01187837148804872</v>
+      </c>
+      <c r="T17">
+        <v>0.01187837148804872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J18">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N18">
+        <v>358.791794</v>
+      </c>
+      <c r="O18">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P18">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q18">
+        <v>34.18169555683112</v>
+      </c>
+      <c r="R18">
+        <v>307.63526001148</v>
+      </c>
+      <c r="S18">
+        <v>0.02672916687282062</v>
+      </c>
+      <c r="T18">
+        <v>0.02672916687282062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J19">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.521302</v>
+      </c>
+      <c r="N19">
+        <v>49.563906</v>
+      </c>
+      <c r="O19">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P19">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q19">
+        <v>4.721898253613334</v>
+      </c>
+      <c r="R19">
+        <v>42.49708428252001</v>
+      </c>
+      <c r="S19">
+        <v>0.003692397475352504</v>
+      </c>
+      <c r="T19">
+        <v>0.003692397475352503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.426967</v>
+      </c>
+      <c r="H20">
+        <v>10.280901</v>
+      </c>
+      <c r="I20">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J20">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N20">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O20">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P20">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q20">
+        <v>88.70842643199035</v>
+      </c>
+      <c r="R20">
+        <v>798.3758378879131</v>
+      </c>
+      <c r="S20">
+        <v>0.06936760434203049</v>
+      </c>
+      <c r="T20">
+        <v>0.06936760434203047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.426967</v>
+      </c>
+      <c r="H21">
+        <v>10.280901</v>
+      </c>
+      <c r="I21">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J21">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>52.814392</v>
+      </c>
+      <c r="N21">
+        <v>158.443176</v>
+      </c>
+      <c r="O21">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P21">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q21">
+        <v>180.993178509064</v>
+      </c>
+      <c r="R21">
+        <v>1628.938606581576</v>
+      </c>
+      <c r="S21">
+        <v>0.1415317991808678</v>
+      </c>
+      <c r="T21">
+        <v>0.1415317991808678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.426967</v>
+      </c>
+      <c r="H22">
+        <v>10.280901</v>
+      </c>
+      <c r="I22">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J22">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N22">
+        <v>145.778036</v>
+      </c>
+      <c r="O22">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P22">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q22">
+        <v>166.5255062322707</v>
+      </c>
+      <c r="R22">
+        <v>1498.729556090436</v>
+      </c>
+      <c r="S22">
+        <v>0.1302184684566871</v>
+      </c>
+      <c r="T22">
+        <v>0.1302184684566871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.426967</v>
+      </c>
+      <c r="H23">
+        <v>10.280901</v>
+      </c>
+      <c r="I23">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J23">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.14871</v>
+      </c>
+      <c r="N23">
+        <v>159.44613</v>
+      </c>
+      <c r="O23">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P23">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q23">
+        <v>182.13887526257</v>
+      </c>
+      <c r="R23">
+        <v>1639.24987736313</v>
+      </c>
+      <c r="S23">
+        <v>0.1424277032374467</v>
+      </c>
+      <c r="T23">
+        <v>0.1424277032374467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.426967</v>
+      </c>
+      <c r="H24">
+        <v>10.280901</v>
+      </c>
+      <c r="I24">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J24">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N24">
+        <v>358.791794</v>
+      </c>
+      <c r="O24">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P24">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q24">
+        <v>409.8558793029326</v>
+      </c>
+      <c r="R24">
+        <v>3688.702913726394</v>
+      </c>
+      <c r="S24">
+        <v>0.320496277707481</v>
+      </c>
+      <c r="T24">
+        <v>0.320496277707481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.426967</v>
+      </c>
+      <c r="H25">
+        <v>10.280901</v>
+      </c>
+      <c r="I25">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J25">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.521302</v>
+      </c>
+      <c r="N25">
+        <v>49.563906</v>
+      </c>
+      <c r="O25">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P25">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q25">
+        <v>56.61795675103401</v>
+      </c>
+      <c r="R25">
+        <v>509.561610759306</v>
+      </c>
+      <c r="S25">
+        <v>0.04427371987678037</v>
+      </c>
+      <c r="T25">
+        <v>0.04427371987678037</v>
       </c>
     </row>
   </sheetData>
